--- a/数据库设计文档v1.5.xlsx
+++ b/数据库设计文档v1.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8550" tabRatio="971"/>
+    <workbookView windowWidth="20400" windowHeight="8550" tabRatio="971" firstSheet="19" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="表目录" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450">
   <si>
     <t>论坛：数据库设计文档</t>
   </si>
@@ -1519,35 +1519,6 @@
     <t>用户标记 1正常用户  2虚拟用户</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(v1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)增</t>
-    </r>
-  </si>
-  <si>
     <t>img_modle</t>
   </si>
   <si>
@@ -1981,13 +1952,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[DBNum1][$-804]General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2018,31 +1989,6 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2084,12 +2030,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2170,30 +2110,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2218,19 +2158,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2242,7 +2173,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2253,12 +2184,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2275,7 +2200,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2284,25 +2209,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2650,8 +2569,8 @@
   <sheetPr/>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2663,81 +2582,81 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="22.5" spans="1:3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="18.75" spans="1:2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:3">
       <c r="A9" s="4" t="s">
@@ -2754,7 +2673,7 @@
       <c r="A10" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2765,7 +2684,7 @@
       <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2776,7 +2695,7 @@
       <c r="A12" s="5">
         <v>3</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2787,7 +2706,7 @@
       <c r="A13" s="5">
         <v>4</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2798,7 +2717,7 @@
       <c r="A14" s="5">
         <v>5</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2809,7 +2728,7 @@
       <c r="A15" s="5">
         <v>6</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -2820,7 +2739,7 @@
       <c r="A16" s="5">
         <v>7</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2831,7 +2750,7 @@
       <c r="A17" s="5">
         <v>8</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2842,7 +2761,7 @@
       <c r="A18" s="5">
         <v>9</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="26" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -2853,13 +2772,13 @@
       <c r="A19" s="5">
         <v>10</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2867,7 +2786,7 @@
       <c r="A20" s="5">
         <v>11</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -2878,10 +2797,10 @@
       <c r="A21" s="5">
         <v>12</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D21" t="s">
@@ -2892,7 +2811,7 @@
       <c r="A22" s="5">
         <v>13</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="26" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -2903,7 +2822,7 @@
       <c r="A23" s="5">
         <v>14</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2914,7 +2833,7 @@
       <c r="A24" s="5">
         <v>15</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="26" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -2928,7 +2847,7 @@
       <c r="A25" s="5">
         <v>16</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="26" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2939,7 +2858,7 @@
       <c r="A26" s="5">
         <v>17</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2950,7 +2869,7 @@
       <c r="A27" s="5">
         <v>18</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="26" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -2961,7 +2880,7 @@
       <c r="A28" s="5">
         <v>19</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="26" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -2972,7 +2891,7 @@
       <c r="A29" s="5">
         <v>20</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="26" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -2983,13 +2902,13 @@
       <c r="A30" s="5">
         <v>21</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="26" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2997,13 +2916,13 @@
       <c r="A31" s="5">
         <v>22</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="26" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3011,80 +2930,80 @@
       <c r="A32" s="5">
         <v>23</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="26" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:4">
-      <c r="A33" s="14">
+      <c r="A33" s="11">
         <v>24</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:4">
-      <c r="A34" s="14">
+      <c r="A34" s="11">
         <v>25</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:4">
-      <c r="A35" s="14">
+      <c r="A35" s="11">
         <v>26</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:4">
-      <c r="A36" s="14">
+      <c r="A36" s="11">
         <v>27</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:4">
-      <c r="A37" s="14">
+      <c r="A37" s="11">
         <v>28</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D37" t="s">
@@ -3171,7 +3090,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -3188,7 +3107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3205,7 +3124,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3222,7 +3141,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3239,7 +3158,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -3256,7 +3175,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3341,7 +3260,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="14.25" spans="1:5">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -3363,7 +3282,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -3377,7 +3296,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" ht="14.25" spans="1:4">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -3440,7 +3359,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -3457,7 +3376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3474,7 +3393,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3491,7 +3410,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3508,7 +3427,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -3525,7 +3444,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3542,7 +3461,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="14.25" spans="1:5">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -3559,7 +3478,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="14.25" spans="1:5">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -3626,7 +3545,7 @@
       <c r="E14" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3646,7 +3565,7 @@
       <c r="E15" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3666,7 +3585,7 @@
       <c r="E16" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3686,7 +3605,7 @@
       <c r="E17" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3695,7 +3614,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" ht="14.25" spans="1:4">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -3709,7 +3628,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" ht="14.25" spans="1:4">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -3772,7 +3691,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -3789,7 +3708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3806,7 +3725,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3823,7 +3742,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3840,7 +3759,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -3857,7 +3776,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3874,7 +3793,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="14.25" spans="1:5">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -3891,7 +3810,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="14.25" spans="1:5">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -3908,7 +3827,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -3925,7 +3844,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="14.25" spans="1:5">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -3947,7 +3866,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" ht="14.25" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -3961,7 +3880,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -4024,7 +3943,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -4041,7 +3960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4058,7 +3977,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4075,7 +3994,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4092,7 +4011,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4109,7 +4028,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -4126,7 +4045,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="14.25" spans="1:5">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -4143,7 +4062,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="14.25" spans="1:5">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -4160,7 +4079,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -4177,7 +4096,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="14.25" spans="1:5">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -4194,7 +4113,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="14.25" spans="1:5">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -4211,7 +4130,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="14.25" spans="1:5">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -4228,7 +4147,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" ht="14.25" spans="1:5">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -4245,7 +4164,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" ht="14.25" spans="1:5">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -4262,7 +4181,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" ht="14.25" spans="1:5">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -4296,7 +4215,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" ht="14.25" spans="1:5">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -4313,7 +4232,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" ht="14.25" spans="1:5">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -4435,7 +4354,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" ht="14.25" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
@@ -4449,7 +4368,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" ht="14.25" spans="1:4">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -4513,7 +4432,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -4530,7 +4449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4547,7 +4466,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4581,7 +4500,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4598,7 +4517,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -4615,7 +4534,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="14.25" spans="1:5">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -4637,7 +4556,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -4651,7 +4570,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" ht="14.25" spans="1:4">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -4701,20 +4620,20 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" ht="18" spans="1:1">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -4731,7 +4650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4782,7 +4701,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4804,7 +4723,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -4818,7 +4737,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -4847,8 +4766,8 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F29"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4881,7 +4800,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -4898,7 +4817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4932,7 +4851,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4949,7 +4868,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4966,7 +4885,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -4983,7 +4902,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="14.25" spans="1:5">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -5000,7 +4919,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="14.25" spans="1:5">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -5017,7 +4936,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -5034,7 +4953,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="14.25" spans="1:5">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -5051,7 +4970,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="14.25" spans="1:5">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -5068,7 +4987,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="14.25" spans="1:5">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -5085,7 +5004,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" ht="14.25" spans="1:5">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -5102,7 +5021,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" ht="14.25" spans="1:5">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -5119,7 +5038,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" ht="14.25" spans="1:5">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -5136,7 +5055,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" ht="14.25" spans="1:5">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -5153,7 +5072,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" ht="14.25" spans="1:5">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -5186,7 +5105,7 @@
       <c r="E21" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5223,10 +5142,10 @@
       <c r="D23" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:6">
       <c r="A24" s="5">
@@ -5241,11 +5160,11 @@
       <c r="D24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="7" t="s">
         <v>326</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:6">
@@ -5253,7 +5172,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>103</v>
@@ -5261,11 +5180,11 @@
       <c r="D25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:6">
@@ -5273,7 +5192,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>103</v>
@@ -5281,11 +5200,11 @@
       <c r="D26" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>332</v>
+      <c r="E26" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" ht="35.25" spans="1:1">
@@ -5293,7 +5212,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" ht="14.25" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
@@ -5307,12 +5226,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" ht="14.25" spans="1:4">
       <c r="A29" s="5">
         <v>1</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>122</v>
@@ -5349,7 +5268,7 @@
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5358,7 +5277,7 @@
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5370,7 +5289,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -5387,7 +5306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5404,7 +5323,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -5418,10 +5337,10 @@
         <v>94</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -5435,10 +5354,10 @@
         <v>94</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -5455,7 +5374,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -5463,7 +5382,7 @@
         <v>112</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>94</v>
@@ -5472,7 +5391,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="14.25" spans="1:5">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -5494,7 +5413,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -5508,12 +5427,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" ht="14.25" spans="1:4">
       <c r="A13" s="5">
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>122</v>
@@ -5549,7 +5468,7 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5558,7 +5477,7 @@
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5570,7 +5489,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -5587,7 +5506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5604,7 +5523,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -5621,24 +5540,24 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -5652,15 +5571,15 @@
         <v>94</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>103</v>
@@ -5669,15 +5588,15 @@
         <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:5">
       <c r="A10" s="5">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>103</v>
@@ -5686,15 +5605,15 @@
         <v>94</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:5">
       <c r="A11" s="5">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>103</v>
@@ -5703,27 +5622,27 @@
         <v>94</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="5">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" ht="14.25" spans="1:5">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -5740,7 +5659,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="14.25" spans="1:5">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -5754,7 +5673,7 @@
         <v>94</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" ht="35.25" spans="1:1">
@@ -5762,7 +5681,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -5776,12 +5695,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" ht="14.25" spans="1:4">
       <c r="A17" s="5">
         <v>1</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>122</v>
@@ -5817,7 +5736,7 @@
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5826,7 +5745,7 @@
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5838,7 +5757,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -5855,7 +5774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5872,12 +5791,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>103</v>
@@ -5886,7 +5805,7 @@
         <v>94</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" ht="23.25" spans="1:5">
@@ -5903,10 +5822,10 @@
         <v>94</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -5920,7 +5839,7 @@
         <v>94</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" ht="23.25" spans="1:5">
@@ -5937,7 +5856,7 @@
         <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" ht="35.25" spans="1:1">
@@ -5945,7 +5864,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -5959,12 +5878,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="5">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>122</v>
@@ -6001,13 +5920,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" ht="17.25" spans="1:1">
       <c r="A2" s="3" t="s">
@@ -6019,7 +5938,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -6036,7 +5955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6053,11 +5972,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -6070,11 +5989,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -6087,11 +6006,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -6104,11 +6023,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -6125,7 +6044,7 @@
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="20" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -6138,11 +6057,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="14.25" spans="1:5">
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="20" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -6155,11 +6074,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="20" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -6172,11 +6091,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="14.25" spans="1:5">
       <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="20" t="s">
         <v>112</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -6185,15 +6104,15 @@
       <c r="D13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="14.25" spans="1:5">
       <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="20" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -6207,15 +6126,15 @@
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -6270,7 +6189,7 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6279,7 +6198,7 @@
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6291,7 +6210,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -6308,7 +6227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6325,12 +6244,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>103</v>
@@ -6339,15 +6258,15 @@
         <v>94</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>103</v>
@@ -6356,10 +6275,10 @@
         <v>94</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -6376,7 +6295,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -6390,7 +6309,7 @@
         <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" ht="35.25" spans="1:1">
@@ -6398,7 +6317,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -6412,12 +6331,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="5">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>122</v>
@@ -6453,7 +6372,7 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6462,7 +6381,7 @@
     </row>
     <row r="2" ht="21.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6474,7 +6393,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -6491,7 +6410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6508,12 +6427,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>150</v>
@@ -6522,15 +6441,15 @@
         <v>94</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>150</v>
@@ -6539,10 +6458,10 @@
         <v>94</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -6559,21 +6478,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="17">
+    <row r="9" ht="14.25" spans="1:5">
+      <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>376</v>
+      <c r="D9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="10" ht="35.25" spans="1:1">
@@ -6581,7 +6500,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -6595,12 +6514,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="5">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>122</v>
@@ -6637,7 +6556,7 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6646,7 +6565,7 @@
     </row>
     <row r="2" ht="21.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6658,7 +6577,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -6675,7 +6594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6689,15 +6608,15 @@
         <v>91</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>116</v>
@@ -6709,12 +6628,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>103</v>
@@ -6722,16 +6641,16 @@
       <c r="D7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>90</v>
@@ -6740,24 +6659,24 @@
         <v>94</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="17">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:5">
+      <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>385</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="10" ht="35.25" spans="1:1">
@@ -6765,7 +6684,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -6779,12 +6698,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="5">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>122</v>
@@ -6821,7 +6740,7 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6830,7 +6749,7 @@
     </row>
     <row r="2" ht="21.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6842,7 +6761,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -6859,7 +6778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6873,15 +6792,15 @@
         <v>91</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>116</v>
@@ -6890,10 +6809,10 @@
         <v>94</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -6907,41 +6826,41 @@
         <v>94</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="17">
-        <v>4</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="19" t="s">
+    <row r="9" ht="14.25" spans="1:5">
+      <c r="A9" s="14">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="17">
-        <v>5</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>394</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="10" ht="35.25" spans="1:1">
@@ -6949,7 +6868,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -6963,12 +6882,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="5">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>122</v>
@@ -7021,7 +6940,7 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7030,7 +6949,7 @@
     </row>
     <row r="2" ht="21.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -7042,7 +6961,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -7059,7 +6978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -7073,10 +6992,10 @@
         <v>91</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -7090,15 +7009,15 @@
         <v>94</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>103</v>
@@ -7107,7 +7026,7 @@
         <v>94</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" ht="35.25" spans="1:1">
@@ -7115,7 +7034,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" ht="14.25" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -7129,12 +7048,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="5">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>122</v>
@@ -7172,172 +7091,172 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="18" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" ht="18" spans="1:5">
-      <c r="A3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
+    </row>
+    <row r="6" ht="17.25" customHeight="1" spans="1:5">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:5">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" ht="18" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:5">
+      <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="14">
+      <c r="C11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:5">
+      <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B12" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="6" ht="17.25" customHeight="1" spans="1:5">
-      <c r="A6" s="14">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="14">
-        <v>3</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="14">
-        <v>4</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="14">
-        <v>5</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10" ht="18" spans="1:5">
-      <c r="A10" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:5">
-      <c r="A11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:5">
-      <c r="A12" s="14">
-        <v>1</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="12"/>
+      <c r="D12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7369,206 +7288,206 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="18" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" ht="18" spans="1:5">
-      <c r="A3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
+    </row>
+    <row r="6" ht="17.25" customHeight="1" spans="1:5">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:5">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:5">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:5">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" ht="18" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:5">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="14">
+      <c r="C13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:5">
+      <c r="A14" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B14" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="6" ht="17.25" customHeight="1" spans="1:5">
-      <c r="A6" s="14">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="14">
-        <v>3</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="14">
-        <v>4</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="14">
-        <v>5</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="14">
-        <v>6</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="14">
-        <v>7</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="12" ht="18" spans="1:5">
-      <c r="A12" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:5">
-      <c r="A13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:5">
-      <c r="A14" s="14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="12"/>
+      <c r="D14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7599,138 +7518,138 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="18" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" customHeight="1" spans="1:5">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" ht="18" spans="1:5">
-      <c r="A3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
+      <c r="C6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:5">
+      <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="14">
+      <c r="C9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:5">
+      <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B10" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="6" ht="17.25" customHeight="1" spans="1:5">
-      <c r="A6" s="14">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="14">
-        <v>3</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="8" ht="18" spans="1:5">
-      <c r="A8" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:5">
-      <c r="A9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:5">
-      <c r="A10" s="14">
-        <v>1</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="12"/>
+      <c r="D10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7762,155 +7681,155 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="18" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" customHeight="1" spans="1:5">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:5">
-      <c r="A2" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" ht="18" spans="1:5">
-      <c r="A3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" ht="18" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:5">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="14">
+      <c r="C10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:5">
+      <c r="A11" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B11" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" ht="17.25" customHeight="1" spans="1:5">
-      <c r="A6" s="14">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="14">
-        <v>3</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="14">
-        <v>4</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="9" ht="18" spans="1:5">
-      <c r="A9" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:5">
-      <c r="A10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:5">
-      <c r="A11" s="14">
-        <v>1</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="12"/>
+      <c r="D11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7961,7 +7880,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -7978,7 +7897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -7995,7 +7914,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -8012,7 +7931,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -8029,7 +7948,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -8046,7 +7965,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -8063,7 +7982,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="14.25" spans="1:5">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -8080,7 +7999,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="14.25" spans="1:5">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -8102,7 +8021,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" ht="14.25" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -8145,21 +8064,22 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="4" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
     <col min="5" max="5" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8168,7 +8088,7 @@
     </row>
     <row r="2" ht="17.25" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8180,7 +8100,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -8197,7 +8117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -8214,7 +8134,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -8231,24 +8151,24 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -8263,7 +8183,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -8277,12 +8197,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="5">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>122</v>
@@ -8340,7 +8260,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -8357,7 +8277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -8374,7 +8294,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -8391,7 +8311,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -8425,7 +8345,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -8442,7 +8362,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="14.25" spans="1:5">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -8459,7 +8379,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="14.25" spans="1:5">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -8476,7 +8396,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -8493,7 +8413,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="14.25" spans="1:5">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -8510,24 +8430,24 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="17">
+    <row r="14" ht="14.25" spans="1:5">
+      <c r="A14" s="14">
         <v>10</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="14.25" spans="1:5">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -8544,7 +8464,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" ht="14.25" spans="1:5">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -8561,7 +8481,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" ht="14.25" spans="1:5">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -8578,7 +8498,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" ht="14.25" spans="1:5">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -8595,7 +8515,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" ht="14.25" spans="1:5">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -8612,7 +8532,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" ht="14.25" spans="1:5">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -8629,7 +8549,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" ht="14.25" spans="1:5">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -8647,14 +8567,14 @@
       </c>
     </row>
     <row r="22" ht="35.25" customHeight="1" spans="1:4">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:4">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -8668,7 +8588,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" ht="14.25" spans="1:4">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -8732,7 +8652,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -8749,7 +8669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -8766,7 +8686,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -8783,7 +8703,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -8800,7 +8720,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -8817,7 +8737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -8834,7 +8754,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="14.25" spans="1:5">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -8856,7 +8776,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -8870,7 +8790,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" ht="14.25" spans="1:4">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -8934,7 +8854,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -8951,7 +8871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -8968,7 +8888,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -8985,7 +8905,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -9002,7 +8922,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -9024,7 +8944,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -9038,7 +8958,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -9100,7 +9020,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -9117,7 +9037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -9134,7 +9054,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -9168,7 +9088,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -9190,7 +9110,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -9204,7 +9124,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -9267,7 +9187,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -9284,7 +9204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -9301,7 +9221,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -9318,7 +9238,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -9335,7 +9255,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -9352,7 +9272,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -9374,7 +9294,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -9388,7 +9308,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -9451,7 +9371,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -9468,7 +9388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -9485,7 +9405,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -9519,7 +9439,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -9541,7 +9461,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -9555,7 +9475,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="5">
         <v>1</v>
       </c>
